--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2000.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2000.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.025*"foreign" + 0.022*"exchange" + 0.016*"import" + 0.015*"account" + 0.015*"currency" + 0.014*"control" + 0.013*"yes" + 0.013*"resident" + 0.012*"payment" + 0.012*"export"</t>
-  </si>
-  <si>
-    <t>0.021*"foreign" + 0.020*"exchange" + 0.015*"account" + 0.014*"currency" + 0.014*"import" + 0.013*"yes" + 0.012*"control" + 0.011*"nonresident" + 0.011*"may" + 0.010*"payment"</t>
-  </si>
-  <si>
-    <t>0.021*"exchange" + 0.016*"foreign" + 0.015*"payment" + 0.012*"account" + 0.012*"control" + 0.012*"import" + 0.012*"yes" + 0.011*"currency" + 0.011*"requirement" + 0.010*"resident"</t>
-  </si>
-  <si>
-    <t>0.005*"foreign" + 0.004*"exchange" + 0.003*"import" + 0.003*"account" + 0.003*"currency" + 0.003*"nonresident" + 0.003*"export" + 0.002*"may" + 0.002*"control" + 0.002*"payment"</t>
-  </si>
-  <si>
-    <t>0.004*"foreign" + 0.003*"exchange" + 0.002*"yes" + 0.002*"control" + 0.002*"account" + 0.002*"payment" + 0.002*"import" + 0.002*"currency" + 0.002*"may" + 0.002*"export"</t>
+    <t>0.061*"exchange" + 0.044*"rate" + 0.030*"arrangement" + 0.025*"payment" + 0.024*"control" + 0.020*"trade" + 0.019*"currency" + 0.017*"gold" + 0.016*"market" + 0.013*"january"</t>
+  </si>
+  <si>
+    <t>0.033*"control" + 0.033*"resident" + 0.031*"investment" + 0.031*"nonresident" + 0.026*"bank" + 0.026*"security" + 0.025*"abroad" + 0.024*"capital" + 0.023*"purchase" + 0.021*"credit"</t>
+  </si>
+  <si>
+    <t>0.058*"yes" + 0.045*"transfer" + 0.040*"approval" + 0.035*"require" + 0.033*"payment" + 0.028*"prior" + 0.025*"transaction" + 0.019*"limit" + 0.017*"current" + 0.017*"authorization"</t>
+  </si>
+  <si>
+    <t>0.075*"import" + 0.048*"export" + 0.033*"requirement" + 0.031*"fund" + 0.025*"license" + 0.024*"international" + 0.022*"monetary" + 0.016*"tax" + 0.014*"good" + 0.013*"exchange"</t>
+  </si>
+  <si>
+    <t>0.079*"foreign" + 0.078*"account" + 0.058*"currency" + 0.038*"may" + 0.030*"exchange" + 0.021*"domestic" + 0.018*"resident" + 0.017*"hold" + 0.017*"permit" + 0.015*"abroad"</t>
   </si>
 </sst>
 </file>
